--- a/raw-data-prep/raw_data/Post-Questionnaire_TG.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_TG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="55">
   <si>
     <t>Subject</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>6- note- lol</t>
   </si>
   <si>
     <t>3.34 C, 3.4 HS</t>
@@ -570,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
@@ -3833,8 +3830,8 @@
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
+      <c r="C29" s="2">
+        <v>6</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -4519,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -5325,7 +5322,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK41">
         <v>3</v>
@@ -5447,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="AL42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:38">
@@ -8115,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="AL65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:38">
@@ -8460,7 +8457,7 @@
         <v>5</v>
       </c>
       <c r="AK68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL68">
         <v>2.7</v>
@@ -8781,7 +8778,7 @@
         <v>5</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
@@ -10296,7 +10293,7 @@
         <v>5</v>
       </c>
       <c r="AK84" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL84" s="2">
         <v>2.75</v>
@@ -12565,7 +12562,7 @@
         <v>6</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC104" s="1"/>
       <c r="AD104" s="1"/>
@@ -12695,7 +12692,7 @@
         <v>289</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -14833,7 +14830,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>

--- a/raw-data-prep/raw_data/Post-Questionnaire_TG.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_TG.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhilga\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="47">
   <si>
     <t>Subject</t>
   </si>
@@ -147,9 +152,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>race_t</t>
   </si>
   <si>
@@ -168,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,12 +241,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -256,6 +259,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -304,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,12 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AN198"/>
+  <dimension ref="A1:AN197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN42" sqref="AN42"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L169" sqref="A169:L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +676,10 @@
         <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM1" t="s">
         <v>36</v>
@@ -683,127 +688,127 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>197</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>6</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
-      <c r="Z2">
-        <v>6</v>
-      </c>
-      <c r="AA2">
-        <v>5</v>
-      </c>
-      <c r="AB2">
-        <v>4</v>
-      </c>
-      <c r="AC2">
-        <v>7</v>
-      </c>
-      <c r="AD2">
-        <v>6</v>
-      </c>
-      <c r="AE2">
-        <v>7</v>
-      </c>
-      <c r="AF2">
-        <v>4</v>
-      </c>
-      <c r="AG2">
-        <v>5</v>
-      </c>
-      <c r="AH2" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>168</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>6</v>
+      </c>
+      <c r="R2" s="4">
+        <v>6</v>
+      </c>
+      <c r="S2" s="4">
+        <v>6</v>
+      </c>
+      <c r="T2" s="4">
+        <v>5</v>
+      </c>
+      <c r="U2" s="4">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <v>5</v>
+      </c>
+      <c r="X2" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI2">
-        <v>20</v>
+      <c r="AI2" s="4">
+        <v>18</v>
       </c>
       <c r="AJ2" s="2">
-        <v>6</v>
-      </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM2">
-        <v>2</v>
-      </c>
-      <c r="AN2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>183</v>
       </c>
@@ -919,7 +924,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>184</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>185</v>
       </c>
@@ -1151,129 +1156,127 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>168</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2">
-        <v>6</v>
-      </c>
-      <c r="L6" s="2">
-        <v>7</v>
-      </c>
-      <c r="M6" s="2">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2">
-        <v>6</v>
-      </c>
-      <c r="S6" s="2">
-        <v>6</v>
-      </c>
-      <c r="T6" s="2">
-        <v>5</v>
-      </c>
-      <c r="U6" s="2">
-        <v>5</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2">
-        <v>5</v>
-      </c>
-      <c r="X6" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="2" t="s">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>187</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>2</v>
+      </c>
+      <c r="R6" s="5">
+        <v>5</v>
+      </c>
+      <c r="S6" s="5">
+        <v>5</v>
+      </c>
+      <c r="T6" s="5">
+        <v>3</v>
+      </c>
+      <c r="U6" s="5">
+        <v>2</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5">
+        <v>1</v>
+      </c>
+      <c r="X6" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="2">
-        <v>18</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>1.2</v>
+      <c r="AI6" s="5">
+        <v>19</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1282,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1291,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -1303,111 +1306,115 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE7">
         <v>7</v>
       </c>
       <c r="AF7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="s">
         <v>39</v>
       </c>
       <c r="AI7">
-        <v>19</v>
-      </c>
-      <c r="AJ7">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="AM7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>38</v>
@@ -1419,115 +1426,113 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S8">
         <v>7</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>7</v>
       </c>
       <c r="AB8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF8">
         <v>2</v>
       </c>
       <c r="AG8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="s">
         <v>39</v>
       </c>
       <c r="AI8">
-        <v>18</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>6</v>
-      </c>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
       <c r="AM8">
         <v>1</v>
       </c>
       <c r="AN8">
-        <v>4</v>
+        <v>3.1970000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
@@ -1539,10 +1544,10 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1551,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1560,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S9">
         <v>7</v>
@@ -1575,37 +1580,37 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>7</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AH9" t="s">
         <v>39</v>
@@ -1614,36 +1619,36 @@
         <v>19</v>
       </c>
       <c r="AJ9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM9">
         <v>1</v>
       </c>
       <c r="AN9">
-        <v>3.1970000000000001</v>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -1655,40 +1660,40 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>2</v>
@@ -1697,31 +1702,31 @@
         <v>7</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="s">
         <v>39</v>
@@ -1736,15 +1741,15 @@
         <v>1</v>
       </c>
       <c r="AN10">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
     </row>
-    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1753,13 +1758,13 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
@@ -1771,79 +1776,79 @@
         <v>7</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>3</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S11">
         <v>6</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y11">
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA11">
         <v>5</v>
       </c>
       <c r="AB11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF11">
         <v>5</v>
       </c>
       <c r="AG11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="s">
         <v>39</v>
       </c>
       <c r="AI11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ11">
         <v>5</v>
@@ -1852,30 +1857,30 @@
         <v>1</v>
       </c>
       <c r="AN11">
-        <v>3.85</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
@@ -1887,46 +1892,46 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S12">
         <v>6</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1938,19 +1943,19 @@
         <v>5</v>
       </c>
       <c r="AB12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG12">
         <v>5</v>
@@ -1968,261 +1973,263 @@
         <v>1</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>193</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>7</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>6</v>
-      </c>
-      <c r="S13">
-        <v>6</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>7</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-      <c r="AA13">
-        <v>5</v>
-      </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>5</v>
-      </c>
-      <c r="AD13">
-        <v>5</v>
-      </c>
-      <c r="AE13">
-        <v>2</v>
-      </c>
-      <c r="AF13">
-        <v>2</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AH13" t="s">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>194</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="4">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>6</v>
+      </c>
+      <c r="L13" s="4">
+        <v>6</v>
+      </c>
+      <c r="M13" s="4">
+        <v>4</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>6</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>4</v>
+      </c>
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+      <c r="S13" s="4">
+        <v>5</v>
+      </c>
+      <c r="T13" s="4">
+        <v>2</v>
+      </c>
+      <c r="U13" s="4">
+        <v>2</v>
+      </c>
+      <c r="V13" s="4">
+        <v>4</v>
+      </c>
+      <c r="W13" s="4">
+        <v>2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>7</v>
+      </c>
+      <c r="AH13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="4">
+        <v>21</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>195</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="5">
+        <v>6</v>
+      </c>
+      <c r="K14" s="5">
+        <v>5</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2</v>
+      </c>
+      <c r="N14" s="5">
+        <v>2</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>3</v>
+      </c>
+      <c r="R14" s="5">
+        <v>5</v>
+      </c>
+      <c r="S14" s="5">
+        <v>5</v>
+      </c>
+      <c r="T14" s="5">
+        <v>5</v>
+      </c>
+      <c r="U14" s="5">
+        <v>2</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="5">
         <v>18</v>
       </c>
-      <c r="AJ13">
-        <v>5</v>
-      </c>
-      <c r="AM13">
-        <v>1</v>
-      </c>
-      <c r="AN13">
-        <v>3.5</v>
+      <c r="AJ14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>194</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="2">
-        <v>6</v>
-      </c>
-      <c r="K14" s="2">
-        <v>6</v>
-      </c>
-      <c r="L14" s="2">
-        <v>6</v>
-      </c>
-      <c r="M14" s="2">
-        <v>4</v>
-      </c>
-      <c r="N14" s="2">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2">
-        <v>6</v>
-      </c>
-      <c r="P14" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2">
-        <v>3</v>
-      </c>
-      <c r="S14" s="2">
-        <v>5</v>
-      </c>
-      <c r="T14" s="2">
-        <v>2</v>
-      </c>
-      <c r="U14" s="2">
-        <v>2</v>
-      </c>
-      <c r="V14" s="2">
-        <v>4</v>
-      </c>
-      <c r="W14" s="2">
-        <v>2</v>
-      </c>
-      <c r="X14" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>7</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>7</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>6</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>21</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>5</v>
-      </c>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -2234,19 +2241,19 @@
         <v>38</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2255,31 +2262,31 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
       <c r="X15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2288,57 +2295,57 @@
         <v>5</v>
       </c>
       <c r="AB15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD15">
         <v>5</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AG15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="s">
         <v>39</v>
       </c>
       <c r="AI15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ15">
         <v>5</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN15">
-        <v>4</v>
+        <v>2.8</v>
       </c>
     </row>
-    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2353,10 +2360,10 @@
         <v>7</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2365,79 +2372,83 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA16">
         <v>5</v>
       </c>
       <c r="AB16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC16">
         <v>7</v>
       </c>
       <c r="AD16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="s">
         <v>39</v>
       </c>
       <c r="AI16">
-        <v>21</v>
-      </c>
-      <c r="AJ16">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="AM16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>198</v>
       </c>
@@ -2553,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>199</v>
       </c>
@@ -2669,7 +2680,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200</v>
       </c>
@@ -2785,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>201</v>
       </c>
@@ -2901,7 +2912,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>202</v>
       </c>
@@ -3017,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>203</v>
       </c>
@@ -3128,7 +3139,7 @@
       </c>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AM22" s="2">
         <v>1</v>
@@ -3137,7 +3148,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>204</v>
       </c>
@@ -3248,7 +3259,7 @@
       </c>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM23">
         <v>3</v>
@@ -3257,7 +3268,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>205</v>
       </c>
@@ -3373,7 +3384,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>206</v>
       </c>
@@ -3489,7 +3500,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>207</v>
       </c>
@@ -3605,7 +3616,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>208</v>
       </c>
@@ -3721,7 +3732,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>209</v>
       </c>
@@ -3837,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>210</v>
       </c>
@@ -3955,7 +3966,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>211</v>
       </c>
@@ -4071,7 +4082,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>212</v>
       </c>
@@ -4187,7 +4198,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>213</v>
       </c>
@@ -4303,7 +4314,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>214</v>
       </c>
@@ -4535,7 +4546,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>217</v>
       </c>
@@ -4651,7 +4662,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>218</v>
       </c>
@@ -4769,7 +4780,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>219</v>
       </c>
@@ -4885,7 +4896,7 @@
         <v>3.6080000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>220</v>
       </c>
@@ -5003,7 +5014,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>221</v>
       </c>
@@ -5119,7 +5130,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="40" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>222</v>
       </c>
@@ -5235,7 +5246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>223</v>
       </c>
@@ -5471,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>225</v>
       </c>
@@ -5587,7 +5598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>226</v>
       </c>
@@ -5703,7 +5714,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>227</v>
       </c>
@@ -5819,7 +5830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>228</v>
       </c>
@@ -5935,7 +5946,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="47" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>229</v>
       </c>
@@ -6051,7 +6062,7 @@
         <v>3.2850000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>230</v>
       </c>
@@ -6167,7 +6178,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>231</v>
       </c>
@@ -6283,7 +6294,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="50" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>232</v>
       </c>
@@ -6399,7 +6410,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>233</v>
       </c>
@@ -6515,7 +6526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>234</v>
       </c>
@@ -6631,7 +6642,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>235</v>
       </c>
@@ -6747,7 +6758,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>236</v>
       </c>
@@ -6863,7 +6874,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>237</v>
       </c>
@@ -6979,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>238</v>
       </c>
@@ -7097,7 +7108,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>239</v>
       </c>
@@ -7215,7 +7226,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="58" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>240</v>
       </c>
@@ -7331,7 +7342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>241</v>
       </c>
@@ -7447,7 +7458,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>242</v>
       </c>
@@ -7563,7 +7574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>243</v>
       </c>
@@ -7679,7 +7690,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>244</v>
       </c>
@@ -7797,7 +7808,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>245</v>
       </c>
@@ -7913,7 +7924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>246</v>
       </c>
@@ -8145,7 +8156,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>248</v>
       </c>
@@ -8261,7 +8272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>249</v>
       </c>
@@ -8379,7 +8390,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>250</v>
       </c>
@@ -8495,7 +8506,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>251</v>
       </c>
@@ -8611,7 +8622,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>252</v>
       </c>
@@ -8727,7 +8738,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>253</v>
       </c>
@@ -8823,7 +8834,7 @@
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
     </row>
-    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>254</v>
       </c>
@@ -8939,7 +8950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>255</v>
       </c>
@@ -9055,7 +9066,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>256</v>
       </c>
@@ -9171,7 +9182,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>257</v>
       </c>
@@ -9287,7 +9298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>258</v>
       </c>
@@ -9403,7 +9414,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>259</v>
       </c>
@@ -9519,7 +9530,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>260</v>
       </c>
@@ -9635,7 +9646,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>261</v>
       </c>
@@ -9751,7 +9762,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>262</v>
       </c>
@@ -9867,7 +9878,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>263</v>
       </c>
@@ -9983,7 +9994,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>264</v>
       </c>
@@ -10099,7 +10110,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>265</v>
       </c>
@@ -10215,7 +10226,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="84" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>266</v>
       </c>
@@ -10333,7 +10344,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>267</v>
       </c>
@@ -10451,7 +10462,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="86" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>268</v>
       </c>
@@ -10567,7 +10578,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="87" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>269</v>
       </c>
@@ -10683,7 +10694,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="88" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>270</v>
       </c>
@@ -10799,7 +10810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>271</v>
       </c>
@@ -10915,7 +10926,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="90" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>272</v>
       </c>
@@ -11031,7 +11042,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>273</v>
       </c>
@@ -11147,7 +11158,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>274</v>
       </c>
@@ -11263,7 +11274,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>275</v>
       </c>
@@ -11379,7 +11390,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>276</v>
       </c>
@@ -11495,7 +11506,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>277</v>
       </c>
@@ -11611,7 +11622,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>278</v>
       </c>
@@ -11727,7 +11738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>279</v>
       </c>
@@ -11843,7 +11854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>281</v>
       </c>
@@ -11959,7 +11970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>282</v>
       </c>
@@ -11981,8 +11992,6 @@
       <c r="G99" s="2">
         <v>4</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
       <c r="J99" s="2">
         <v>7</v>
       </c>
@@ -12066,7 +12075,7 @@
       </c>
       <c r="AK99" s="2"/>
       <c r="AL99" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AM99" s="2">
         <v>1</v>
@@ -12075,7 +12084,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>283</v>
       </c>
@@ -12097,8 +12106,6 @@
       <c r="G100">
         <v>5</v>
       </c>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
       <c r="J100">
         <v>7</v>
       </c>
@@ -12187,7 +12194,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>284</v>
       </c>
@@ -12209,8 +12216,6 @@
       <c r="G101">
         <v>7</v>
       </c>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
       <c r="J101">
         <v>7</v>
       </c>
@@ -12299,7 +12304,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>285</v>
       </c>
@@ -12321,8 +12326,6 @@
       <c r="G102" s="2">
         <v>5</v>
       </c>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
       <c r="J102" s="2">
         <v>5</v>
       </c>
@@ -12413,7 +12416,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="103" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>286</v>
       </c>
@@ -12435,8 +12438,6 @@
       <c r="G103">
         <v>5</v>
       </c>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
       <c r="J103">
         <v>7</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="104" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>287</v>
       </c>
@@ -12547,8 +12548,6 @@
       <c r="G104">
         <v>5</v>
       </c>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
       <c r="J104">
         <v>6</v>
       </c>
@@ -12603,21 +12602,8 @@
       <c r="AA104">
         <v>6</v>
       </c>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="1"/>
-      <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
-      <c r="AH104" s="1"/>
-      <c r="AI104" s="1"/>
-      <c r="AJ104" s="1"/>
-      <c r="AK104" s="1"/>
-      <c r="AL104" s="1"/>
-      <c r="AM104" s="1"/>
-      <c r="AN104" s="1"/>
     </row>
-    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>288</v>
       </c>
@@ -12639,8 +12625,6 @@
       <c r="G105">
         <v>3</v>
       </c>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
       <c r="J105">
         <v>6</v>
       </c>
@@ -12729,20 +12713,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="106" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>289</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
       <c r="J106">
         <v>7</v>
       </c>
@@ -12831,7 +12805,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>290</v>
       </c>
@@ -12853,8 +12827,6 @@
       <c r="G107">
         <v>7</v>
       </c>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
       <c r="J107">
         <v>7</v>
       </c>
@@ -12943,7 +12915,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="108" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>291</v>
       </c>
@@ -12965,8 +12937,6 @@
       <c r="G108">
         <v>7</v>
       </c>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
       <c r="J108">
         <v>7</v>
       </c>
@@ -13055,7 +13025,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="109" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>292</v>
       </c>
@@ -13077,8 +13047,6 @@
       <c r="G109">
         <v>2</v>
       </c>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
       <c r="J109">
         <v>5</v>
       </c>
@@ -13167,7 +13135,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>293</v>
       </c>
@@ -13189,8 +13157,6 @@
       <c r="G110">
         <v>7</v>
       </c>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
       <c r="J110">
         <v>7</v>
       </c>
@@ -13279,7 +13245,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>294</v>
       </c>
@@ -13301,8 +13267,6 @@
       <c r="G111">
         <v>1</v>
       </c>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
       <c r="J111">
         <v>7</v>
       </c>
@@ -13391,7 +13355,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>295</v>
       </c>
@@ -13413,8 +13377,6 @@
       <c r="G112">
         <v>6</v>
       </c>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
       <c r="J112">
         <v>7</v>
       </c>
@@ -13503,7 +13465,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="113" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>296</v>
       </c>
@@ -13525,8 +13487,6 @@
       <c r="G113">
         <v>5</v>
       </c>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
       <c r="J113">
         <v>6</v>
       </c>
@@ -13615,7 +13575,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>297</v>
       </c>
@@ -13637,8 +13597,6 @@
       <c r="G114">
         <v>4</v>
       </c>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
       <c r="J114">
         <v>7</v>
       </c>
@@ -13727,7 +13685,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>298</v>
       </c>
@@ -13749,8 +13707,6 @@
       <c r="G115">
         <v>4</v>
       </c>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
       <c r="J115">
         <v>3</v>
       </c>
@@ -13839,7 +13795,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>299</v>
       </c>
@@ -13861,8 +13817,6 @@
       <c r="G116" s="2">
         <v>3</v>
       </c>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
       <c r="J116" s="2">
         <v>6</v>
       </c>
@@ -13953,7 +13907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>300</v>
       </c>
@@ -13975,8 +13929,6 @@
       <c r="G117">
         <v>2</v>
       </c>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
       <c r="J117">
         <v>7</v>
       </c>
@@ -14065,7 +14017,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>301</v>
       </c>
@@ -14087,8 +14039,6 @@
       <c r="G118">
         <v>5</v>
       </c>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
       <c r="J118">
         <v>7</v>
       </c>
@@ -14177,7 +14127,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>302</v>
       </c>
@@ -14199,8 +14149,6 @@
       <c r="G119">
         <v>7</v>
       </c>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
       <c r="J119">
         <v>1</v>
       </c>
@@ -14289,7 +14237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>303</v>
       </c>
@@ -14311,8 +14259,6 @@
       <c r="G120">
         <v>2</v>
       </c>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
       <c r="J120">
         <v>7</v>
       </c>
@@ -14401,7 +14347,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>304</v>
       </c>
@@ -14423,8 +14369,6 @@
       <c r="G121">
         <v>1</v>
       </c>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
       <c r="J121">
         <v>5</v>
       </c>
@@ -14513,7 +14457,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="122" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>305</v>
       </c>
@@ -14535,8 +14479,6 @@
       <c r="G122">
         <v>6</v>
       </c>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
       <c r="J122">
         <v>7</v>
       </c>
@@ -14625,7 +14567,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>306</v>
       </c>
@@ -14647,8 +14589,6 @@
       <c r="G123">
         <v>7</v>
       </c>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
       <c r="J123">
         <v>7</v>
       </c>
@@ -14737,7 +14677,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="124" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>307</v>
       </c>
@@ -14759,8 +14699,6 @@
       <c r="G124">
         <v>7</v>
       </c>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
       <c r="J124">
         <v>7</v>
       </c>
@@ -14849,7 +14787,7 @@
         <v>3.1749999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>308</v>
       </c>
@@ -14871,34 +14809,6 @@
       <c r="G125">
         <v>5</v>
       </c>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
-      <c r="AA125" s="1"/>
-      <c r="AB125" s="1"/>
-      <c r="AC125" s="1"/>
-      <c r="AD125" s="1"/>
-      <c r="AE125" s="1"/>
-      <c r="AF125" s="1"/>
-      <c r="AG125" s="1"/>
       <c r="AH125" t="s">
         <v>39</v>
       </c>
@@ -14915,7 +14825,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>309</v>
       </c>
@@ -14937,8 +14847,6 @@
       <c r="G126">
         <v>3</v>
       </c>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
       <c r="J126">
         <v>7</v>
       </c>
@@ -15027,7 +14935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>310</v>
       </c>
@@ -15049,8 +14957,6 @@
       <c r="G127">
         <v>7</v>
       </c>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
       <c r="J127">
         <v>6</v>
       </c>
@@ -15139,7 +15045,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>311</v>
       </c>
@@ -15255,7 +15161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>312</v>
       </c>
@@ -15371,7 +15277,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="130" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>313</v>
       </c>
@@ -15487,7 +15393,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>314</v>
       </c>
@@ -15603,7 +15509,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>316</v>
       </c>
@@ -15719,7 +15625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>317</v>
       </c>
@@ -15835,7 +15741,7 @@
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>318</v>
       </c>
@@ -15951,7 +15857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>319</v>
       </c>
@@ -16067,7 +15973,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>320</v>
       </c>
@@ -16183,7 +16089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>321</v>
       </c>
@@ -16299,7 +16205,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>322</v>
       </c>
@@ -16415,7 +16321,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>323</v>
       </c>
@@ -16533,7 +16439,7 @@
         <v>4.3949999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>324</v>
       </c>
@@ -16649,7 +16555,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>326</v>
       </c>
@@ -16765,7 +16671,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>328</v>
       </c>
@@ -16881,7 +16787,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>329</v>
       </c>
@@ -16997,7 +16903,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="144" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>330</v>
       </c>
@@ -17113,7 +17019,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>331</v>
       </c>
@@ -17229,7 +17135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>332</v>
       </c>
@@ -17345,7 +17251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>333</v>
       </c>
@@ -17461,7 +17367,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>334</v>
       </c>
@@ -17577,7 +17483,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>335</v>
       </c>
@@ -17693,7 +17599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>336</v>
       </c>
@@ -17809,7 +17715,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>337</v>
       </c>
@@ -17925,7 +17831,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="152" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>338</v>
       </c>
@@ -18041,7 +17947,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>339</v>
       </c>
@@ -18157,7 +18063,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>340</v>
       </c>
@@ -18273,7 +18179,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>341</v>
       </c>
@@ -18389,7 +18295,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>342</v>
       </c>
@@ -18505,7 +18411,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>343</v>
       </c>
@@ -18621,7 +18527,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="158" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>344</v>
       </c>
@@ -18737,7 +18643,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>345</v>
       </c>
@@ -18853,7 +18759,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="160" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>346</v>
       </c>
@@ -18969,7 +18875,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>347</v>
       </c>
@@ -19085,7 +18991,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>348</v>
       </c>
@@ -19201,7 +19107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>349</v>
       </c>
@@ -19317,7 +19223,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="164" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>350</v>
       </c>
@@ -19433,7 +19339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>351</v>
       </c>
@@ -19549,7 +19455,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>352</v>
       </c>
@@ -19665,7 +19571,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="167" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>353</v>
       </c>
@@ -19781,7 +19687,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="168" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>354</v>
       </c>
@@ -19897,7 +19803,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="169" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>355</v>
       </c>
@@ -19931,7 +19837,7 @@
       <c r="K169">
         <v>1</v>
       </c>
-      <c r="L169" s="4">
+      <c r="L169" s="3">
         <v>5.5</v>
       </c>
       <c r="M169">
@@ -20013,7 +19919,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="170" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>356</v>
       </c>
@@ -20129,7 +20035,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="171" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>357</v>
       </c>
@@ -20245,7 +20151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>358</v>
       </c>
@@ -20361,7 +20267,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="173" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>359</v>
       </c>
@@ -20477,7 +20383,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="174" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>360</v>
       </c>
@@ -20593,7 +20499,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="175" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>361</v>
       </c>
@@ -20709,7 +20615,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="176" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>362</v>
       </c>
@@ -20825,7 +20731,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>363</v>
       </c>
@@ -20941,7 +20847,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>364</v>
       </c>
@@ -21057,7 +20963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>365</v>
       </c>
@@ -21175,7 +21081,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>365</v>
       </c>
@@ -21293,7 +21199,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>366</v>
       </c>
@@ -21409,7 +21315,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>367</v>
       </c>
@@ -21527,7 +21433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>367</v>
       </c>
@@ -21645,7 +21551,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>368</v>
       </c>
@@ -21761,7 +21667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>369</v>
       </c>
@@ -21877,7 +21783,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>370</v>
       </c>
@@ -21993,7 +21899,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="187" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>371</v>
       </c>
@@ -22109,7 +22015,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>372</v>
       </c>
@@ -22225,7 +22131,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>373</v>
       </c>
@@ -22341,7 +22247,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>374</v>
       </c>
@@ -22457,7 +22363,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>375</v>
       </c>
@@ -22573,7 +22479,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>376</v>
       </c>
@@ -22689,7 +22595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>377</v>
       </c>
@@ -22805,7 +22711,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>378</v>
       </c>
@@ -22921,7 +22827,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="195" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>379</v>
       </c>
@@ -23037,7 +22943,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="196" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>380</v>
       </c>
@@ -23153,7 +23059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>381</v>
       </c>
@@ -23269,16 +23175,11 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="198" spans="1:40" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:AN198">
-    <filterColumn colId="39">
-      <filters>
-        <filter val="2.7/2.8"/>
-        <filter val="3 C, 4 HS"/>
-        <filter val="3.34 C, 3.4 HS"/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A2:AN198">
+      <sortCondition ref="A1:A198"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
